--- a/orphan_matches_final.xlsx
+++ b/orphan_matches_final.xlsx
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.995695069691549</v>
+        <v>0.9985998639519477</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.9734555597192146</v>
+        <v>0.974017887484168</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.9998187602249933</v>
+        <v>0.9998227013982782</v>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.9999999290812993</v>
+        <v>0.9999999285564317</v>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.9999963557622197</v>
+        <v>0.9999964276956776</v>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.4894330181186596</v>
+        <v>0.6434744741786268</v>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.2809124097104978</v>
+        <v>0.3284075266776713</v>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.4007900319920537</v>
+        <v>0.6260908230868526</v>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.6809244403278467</v>
+        <v>0.842331686272997</v>
       </c>
       <c r="Y70" t="inlineStr">
         <is>

--- a/orphan_matches_final.xlsx
+++ b/orphan_matches_final.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y94"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.9985998639519477</v>
+        <v>0.9982630990439053</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.974017887484168</v>
+        <v>0.9728077635467619</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
@@ -2168,27 +2168,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>orphan_100058703:0:0</t>
+          <t>match_100058475:0:0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>2624</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>100058703:0:0</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>100058703</v>
+          <t>100058475:0:0</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2216,43 +2213,69 @@
       <c r="N22" t="n">
         <v>-77.03135287000001</v>
       </c>
+      <c r="O22" t="n">
+        <v>24</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Non-Hispanic</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>maurice williams</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>shotgun</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>gang killing</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>100058703</t>
+          <t>100058678,100058475,100059331</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>entity_100061864:0:0</t>
+          <t>match_100058475:0:0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>2631</v>
+        <v>2624</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>100061864:0:0</t>
-        </is>
+          <t>100058703:0:0</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>100058703</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2265,16 +2288,20 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>month</t>
-        </is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>28193</v>
       </c>
       <c r="L23" t="n">
-        <v>2631</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>r  seavy campbell</t>
-        </is>
+        <v>2624</v>
+      </c>
+      <c r="M23" t="n">
+        <v>38.89500269</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-77.03135287000001</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2286,9 +2313,12 @@
           <t>other</t>
         </is>
       </c>
+      <c r="X23" t="n">
+        <v>0.8966222987160364</v>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>100061864</t>
+          <t>100058703</t>
         </is>
       </c>
     </row>
@@ -2300,18 +2330,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>entity_100063971:0:0</t>
+          <t>entity_100061864:0:0</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>100063971:0:0</t>
+          <t>100061864:0:0</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2325,32 +2355,15 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>28205</v>
+          <t>month</t>
+        </is>
       </c>
       <c r="L24" t="n">
-        <v>2636</v>
-      </c>
-      <c r="M24" t="n">
-        <v>38.9019175186715</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-76.99375420307049</v>
-      </c>
-      <c r="O24" t="n">
-        <v>55</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>2631</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>david lee johnson</t>
+          <t>r  seavy campbell</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2358,19 +2371,14 @@
           <t>firearm</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>michael</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>davis</t>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>other</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>100063971</t>
+          <t>100061864</t>
         </is>
       </c>
     </row>
@@ -2382,18 +2390,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>entity_100062228:0:0</t>
+          <t>entity_100063971:0:0</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2644</v>
+        <v>2636</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>100062228:0:0</t>
+          <t>100063971:0:0</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2411,19 +2419,19 @@
         </is>
       </c>
       <c r="K25" s="3" t="n">
-        <v>28213</v>
+        <v>28205</v>
       </c>
       <c r="L25" t="n">
-        <v>2644</v>
+        <v>2636</v>
       </c>
       <c r="M25" t="n">
-        <v>38.96764532</v>
+        <v>38.9019175186715</v>
       </c>
       <c r="N25" t="n">
-        <v>-77.02776581000001</v>
+        <v>-76.99375420307049</v>
       </c>
       <c r="O25" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2432,32 +2440,27 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>james h  martin</t>
+          <t>david lee johnson</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>handgun</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>robbery</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>eric</t>
+          <t>michael</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>burt</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>100062228</t>
+          <t>100063971</t>
         </is>
       </c>
     </row>
@@ -2469,18 +2472,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>entity_100063507:0:0</t>
+          <t>entity_100062228:0:0</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2650</v>
+        <v>2644</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>100063507:0:0</t>
+          <t>100062228:0:0</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2490,7 +2493,7 @@
         <v>1977</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2498,19 +2501,19 @@
         </is>
       </c>
       <c r="K26" s="3" t="n">
-        <v>28219</v>
+        <v>28213</v>
       </c>
       <c r="L26" t="n">
-        <v>2650</v>
+        <v>2644</v>
       </c>
       <c r="M26" t="n">
-        <v>38.90151736</v>
+        <v>38.96764532</v>
       </c>
       <c r="N26" t="n">
-        <v>-76.99247816</v>
+        <v>-77.02776581000001</v>
       </c>
       <c r="O26" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2519,17 +2522,32 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>willy james</t>
+          <t>james h  martin</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>handgun</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>robbery</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>eric</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>burt</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>100063507</t>
+          <t>100062228</t>
         </is>
       </c>
     </row>
@@ -2541,18 +2559,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>entity_100063749:0:0</t>
+          <t>entity_100063507:0:0</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>100063749:0:0</t>
+          <t>100063507:0:0</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2570,23 +2588,28 @@
         </is>
       </c>
       <c r="K27" s="3" t="n">
-        <v>28221</v>
+        <v>28219</v>
       </c>
       <c r="L27" t="n">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="M27" t="n">
-        <v>38.90949476</v>
+        <v>38.90151736</v>
       </c>
       <c r="N27" t="n">
-        <v>-77.02431147</v>
+        <v>-76.99247816</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>michael cromite</t>
+          <t>willy james</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2596,7 +2619,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>100063749</t>
+          <t>100063507</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2631,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>entity_100063749:1:0</t>
+          <t>entity_100063749:0:0</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2619,7 +2642,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>100063749:1:0</t>
+          <t>100063749:0:0</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2643,27 +2666,22 @@
         <v>2652</v>
       </c>
       <c r="M28" t="n">
-        <v>38.90837555</v>
+        <v>38.90949476</v>
       </c>
       <c r="N28" t="n">
-        <v>-77.01143397</v>
+        <v>-77.02431147</v>
       </c>
       <c r="O28" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>haywood williams</t>
+          <t>michael cromite</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>blunt object</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>brawl</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -2680,18 +2698,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>entity_100009032:1:0</t>
+          <t>entity_100063749:1:0</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2671</v>
+        <v>2652</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>100009032:1:0</t>
+          <t>100063749:1:0</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -2709,53 +2727,38 @@
         </is>
       </c>
       <c r="K29" s="3" t="n">
-        <v>28240</v>
+        <v>28221</v>
       </c>
       <c r="L29" t="n">
-        <v>2671</v>
+        <v>2652</v>
       </c>
       <c r="M29" t="n">
-        <v>38.84702574048326</v>
+        <v>38.90837555</v>
       </c>
       <c r="N29" t="n">
-        <v>-77.02346997106631</v>
+        <v>-77.01143397</v>
       </c>
       <c r="O29" t="n">
-        <v>27</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>51</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>bruce w  wilson</t>
+          <t>haywood williams</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>blunt object</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>avon</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>alexander</t>
+          <t>brawl</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>100067595,100026075,100009032,100066856,100009259,100018689,100018007</t>
+          <t>100063749</t>
         </is>
       </c>
     </row>
@@ -2767,18 +2770,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>entity_100067593:0:0</t>
+          <t>entity_100009032:1:0</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2676</v>
+        <v>2671</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>100067593:0:0</t>
+          <t>100009032:1:0</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2796,13 +2799,19 @@
         </is>
       </c>
       <c r="K30" s="3" t="n">
-        <v>28245</v>
+        <v>28240</v>
       </c>
       <c r="L30" t="n">
-        <v>2676</v>
+        <v>2671</v>
+      </c>
+      <c r="M30" t="n">
+        <v>38.84702574048326</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-77.02346997106631</v>
       </c>
       <c r="O30" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2811,7 +2820,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>stanley k  austin</t>
+          <t>bruce w  wilson</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2821,12 +2830,22 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>avon</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>alexander</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>100067593</t>
+          <t>100009032,100067595,100066856,100009259,100018689,100018007,100026075</t>
         </is>
       </c>
     </row>
@@ -2838,18 +2857,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>match_100067452:0:0</t>
+          <t>entity_100067593:0:0</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>2676</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100067452:0:0</t>
+          <t>100067593:0:0</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -2872,14 +2891,8 @@
       <c r="L31" t="n">
         <v>2676</v>
       </c>
-      <c r="M31" t="n">
-        <v>38.8976445</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-77.02493754</v>
-      </c>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2888,39 +2901,29 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>edward b  ellis</t>
+          <t>stanley k  austin</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>robbery</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>ruby</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>poritzky</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>100067452</t>
+          <t>100067593</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2936,11 +2939,8 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>100067285:0:0</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>100067285</v>
+          <t>100067452:0:0</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="K32" s="3" t="n">
-        <v>28243</v>
+        <v>28245</v>
       </c>
       <c r="L32" t="n">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="M32" t="n">
         <v>38.8976445</v>
@@ -2968,6 +2968,19 @@
       <c r="N32" t="n">
         <v>-77.02493754</v>
       </c>
+      <c r="O32" t="n">
+        <v>20</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>edward b  ellis</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr">
         <is>
           <t>firearm</t>
@@ -2988,36 +3001,36 @@
           <t>poritzky</t>
         </is>
       </c>
-      <c r="X32" t="n">
-        <v>0.9998227013982782</v>
-      </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>100067285</t>
+          <t>100067452</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>entity_100000119:0:0</t>
+          <t>match_100067452:0:0</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>100000119:0:0</t>
-        </is>
+          <t>100067285:0:0</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>100067285</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3026,7 +3039,7 @@
         <v>1977</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3034,53 +3047,43 @@
         </is>
       </c>
       <c r="K33" s="3" t="n">
-        <v>28248</v>
+        <v>28243</v>
       </c>
       <c r="L33" t="n">
-        <v>2679</v>
+        <v>2674</v>
       </c>
       <c r="M33" t="n">
-        <v>38.8872061876165</v>
+        <v>38.8976445</v>
       </c>
       <c r="N33" t="n">
-        <v>-76.9799676569391</v>
-      </c>
-      <c r="O33" t="n">
-        <v>40</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>william m  dixon</t>
-        </is>
+        <v>-77.02493754</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>shotgun</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>william</t>
+          <t>ruby</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>smith</t>
-        </is>
+          <t>poritzky</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9998009166576939</v>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>100000119,100068117</t>
+          <t>100067285</t>
         </is>
       </c>
     </row>
@@ -3092,18 +3095,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>entity_100068635:0:0</t>
+          <t>entity_100000119:0:0</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>100068635:0:0</t>
+          <t>100000119:0:0</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3121,19 +3124,19 @@
         </is>
       </c>
       <c r="K34" s="3" t="n">
-        <v>28249</v>
+        <v>28248</v>
       </c>
       <c r="L34" t="n">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="M34" t="n">
-        <v>38.9003934655188</v>
+        <v>38.8872061876165</v>
       </c>
       <c r="N34" t="n">
-        <v>-76.99525762115221</v>
+        <v>-76.9799676569391</v>
       </c>
       <c r="O34" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3142,22 +3145,32 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>james e  jackson</t>
+          <t>william m  dixon</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>shotgun</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>robbery</t>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>william</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>smith</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>100068635</t>
+          <t>100000119,100068117</t>
         </is>
       </c>
     </row>
@@ -3169,18 +3182,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>entity_100000830:0:0</t>
+          <t>entity_100068635:0:0</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>100000830:0:0</t>
+          <t>100068635:0:0</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3198,13 +3211,19 @@
         </is>
       </c>
       <c r="K35" s="3" t="n">
-        <v>28252</v>
+        <v>28249</v>
       </c>
       <c r="L35" t="n">
-        <v>2683</v>
+        <v>2680</v>
+      </c>
+      <c r="M35" t="n">
+        <v>38.9003934655188</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-76.99525762115221</v>
       </c>
       <c r="O35" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3213,17 +3232,22 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>charles napp</t>
+          <t>james e  jackson</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>institutional killing</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>100000830</t>
+          <t>100068635</t>
         </is>
       </c>
     </row>
@@ -3235,18 +3259,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>entity_100001184:0:0</t>
+          <t>entity_100000830:0:0</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2688</v>
+        <v>2683</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>100001184:0:0</t>
+          <t>100000830:0:0</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3264,53 +3288,32 @@
         </is>
       </c>
       <c r="K36" s="3" t="n">
-        <v>28257</v>
+        <v>28252</v>
       </c>
       <c r="L36" t="n">
-        <v>2688</v>
-      </c>
-      <c r="M36" t="n">
-        <v>38.9138606375</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-77.0630218525</v>
+        <v>2683</v>
       </c>
       <c r="O36" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Asian</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Non-Hispanic</t>
-        </is>
-      </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>alexis goodarzi</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>firearm</t>
+          <t>charles napp</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>gang killing</t>
+          <t>institutional killing</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>100002194,100018683,100001184,100001384,100041397,100004364,100009541</t>
+          <t>100000830</t>
         </is>
       </c>
     </row>
@@ -3322,18 +3325,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>entity_100004063:0:2</t>
+          <t>entity_100001184:0:0</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>100004063:0:2</t>
+          <t>100001184:0:0</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3351,45 +3354,53 @@
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>28260</v>
+        <v>28257</v>
       </c>
       <c r="L37" t="n">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="M37" t="n">
-        <v>38.89461601</v>
+        <v>38.9138606375</v>
       </c>
       <c r="N37" t="n">
-        <v>-76.97793278</v>
+        <v>-77.0630218525</v>
+      </c>
+      <c r="O37" t="n">
+        <v>36</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Non-Hispanic</t>
+        </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>hilda gamble</t>
+          <t>alexis goodarzi</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>arson</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>garfield</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>wells</t>
+          <t>gang killing</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>100004063</t>
+          <t>100009541,100002194,100018683,100001384,100041397,100004364,100001184</t>
         </is>
       </c>
     </row>
@@ -3401,18 +3412,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>match_100004063:0:0</t>
+          <t>entity_100004063:0:2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>2691</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>100004063:0:0</t>
+          <t>100004063:0:2</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3441,17 +3452,9 @@
       <c r="N38" t="n">
         <v>-76.97793278</v>
       </c>
-      <c r="O38" t="n">
-        <v>75</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>harry lawerence</t>
+          <t>hilda gamble</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -3483,7 +3486,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3499,11 +3502,8 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>100001889:0:0</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>100001889</v>
+          <t>100004063:0:0</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3532,13 +3532,18 @@
         <v>-76.97793278</v>
       </c>
       <c r="O39" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>harry lawerence</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr">
         <is>
           <t>fire</t>
@@ -3559,24 +3564,21 @@
           <t>wells</t>
         </is>
       </c>
-      <c r="X39" t="n">
-        <v>0.9999999285564317</v>
-      </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>100001889</t>
+          <t>100004063</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>match_100004063:0:1</t>
+          <t>match_100004063:0:0</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3587,8 +3589,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>100004063:0:1</t>
-        </is>
+          <t>100001889:0:0</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>100001889</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3617,16 +3622,11 @@
         <v>-76.97793278</v>
       </c>
       <c r="O40" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>rebecca lawerence booker</t>
+          <t>male</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -3649,16 +3649,19 @@
           <t>wells</t>
         </is>
       </c>
+      <c r="X40" t="n">
+        <v>0.999999910319487</v>
+      </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>100004063</t>
+          <t>100001889</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3674,11 +3677,8 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>100001889:0:1</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>100001889</v>
+          <t>100004063:0:1</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3706,6 +3706,19 @@
       <c r="N41" t="n">
         <v>-76.97793278</v>
       </c>
+      <c r="O41" t="n">
+        <v>65</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>rebecca lawerence booker</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr">
         <is>
           <t>fire</t>
@@ -3726,36 +3739,36 @@
           <t>wells</t>
         </is>
       </c>
-      <c r="X41" t="n">
-        <v>0.9999964276956776</v>
-      </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>100001889</t>
+          <t>100004063</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>entity_100004075:0:0</t>
+          <t>match_100004063:0:1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>2702</v>
+        <v>2691</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>100004075:0:0</t>
-        </is>
+          <t>100001889:0:1</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>100001889</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3772,53 +3785,43 @@
         </is>
       </c>
       <c r="K42" s="3" t="n">
-        <v>28271</v>
+        <v>28260</v>
       </c>
       <c r="L42" t="n">
-        <v>2702</v>
+        <v>2691</v>
       </c>
       <c r="M42" t="n">
-        <v>38.92200396</v>
+        <v>38.89461601</v>
       </c>
       <c r="N42" t="n">
-        <v>-77.03236063</v>
-      </c>
-      <c r="O42" t="n">
-        <v>19</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>edwin lee proctor</t>
-        </is>
+        <v>-76.97793278</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>arson</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>garfield</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>fuller</t>
-        </is>
+          <t>wells</t>
+        </is>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9999954560080407</v>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>100004075,100010427,100010689</t>
+          <t>100001889</t>
         </is>
       </c>
     </row>
@@ -3830,18 +3833,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>entity_100004722:0:0</t>
+          <t>entity_100004075:0:0</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2706</v>
+        <v>2702</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>100004722:0:0</t>
+          <t>100004075:0:0</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -3859,19 +3862,19 @@
         </is>
       </c>
       <c r="K43" s="3" t="n">
-        <v>28275</v>
+        <v>28271</v>
       </c>
       <c r="L43" t="n">
-        <v>2706</v>
+        <v>2702</v>
       </c>
       <c r="M43" t="n">
-        <v>38.90233267</v>
+        <v>38.92200396</v>
       </c>
       <c r="N43" t="n">
-        <v>-76.97483185999999</v>
+        <v>-77.03236063</v>
       </c>
       <c r="O43" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3880,32 +3883,32 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>joe l  jeffries</t>
+          <t>edwin lee proctor</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>felon killed by police</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>timothy</t>
+          <t>john</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>wilson</t>
+          <t>fuller</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>100004722</t>
+          <t>100004075,100010427,100010689</t>
         </is>
       </c>
     </row>
@@ -3917,18 +3920,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>entity_100009032:0:0</t>
+          <t>entity_100004722:0:0</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2722</v>
+        <v>2706</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>100009032:0:0</t>
+          <t>100004722:0:0</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -3938,15 +3941,27 @@
         <v>1977</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>month</t>
-        </is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>28275</v>
       </c>
       <c r="L44" t="n">
-        <v>2722</v>
+        <v>2706</v>
+      </c>
+      <c r="M44" t="n">
+        <v>38.90233267</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-76.97483185999999</v>
+      </c>
+      <c r="O44" t="n">
+        <v>41</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3955,22 +3970,32 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>michael acri</t>
+          <t>joe l  jeffries</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>felon killed by police</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>timothy</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>wilson</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>100009259,100009032</t>
+          <t>100004722</t>
         </is>
       </c>
     </row>
@@ -3982,18 +4007,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>entity_100009900:0:0</t>
+          <t>entity_100009032:0:0</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2733</v>
+        <v>2722</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>100009900:0:0</t>
+          <t>100009032:0:0</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4007,31 +4032,25 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>28302</v>
+          <t>month</t>
+        </is>
       </c>
       <c r="L45" t="n">
-        <v>2733</v>
-      </c>
-      <c r="O45" t="n">
-        <v>62</v>
+        <v>2722</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>effree queen austin</t>
+          <t>michael acri</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>blunt object</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -4039,19 +4058,9 @@
           <t>argument</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>william</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>100009900</t>
+          <t>100009032,100009259</t>
         </is>
       </c>
     </row>
@@ -4063,18 +4072,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>entity_100009953:0:0</t>
+          <t>entity_100009900:0:0</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>100009953:0:0</t>
+          <t>100009900:0:0</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4092,19 +4101,13 @@
         </is>
       </c>
       <c r="K46" s="3" t="n">
-        <v>28303</v>
+        <v>28302</v>
       </c>
       <c r="L46" t="n">
-        <v>2734</v>
-      </c>
-      <c r="M46" t="n">
-        <v>38.9649026473119</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-77.0755730126404</v>
+        <v>2733</v>
       </c>
       <c r="O46" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4113,7 +4116,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>clarissa ann cornwell</t>
+          <t>effree queen austin</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4126,9 +4129,19 @@
           <t>argument</t>
         </is>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>william</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>100009953</t>
+          <t>100009900</t>
         </is>
       </c>
     </row>
@@ -4140,18 +4153,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>entity_100010173:0:0</t>
+          <t>entity_100009953:0:0</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>100010173:0:0</t>
+          <t>100009953:0:0</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4169,19 +4182,19 @@
         </is>
       </c>
       <c r="K47" s="3" t="n">
-        <v>28304</v>
+        <v>28303</v>
       </c>
       <c r="L47" t="n">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="M47" t="n">
-        <v>38.96863099</v>
+        <v>38.9649026473119</v>
       </c>
       <c r="N47" t="n">
-        <v>-77.03372163</v>
+        <v>-77.0755730126404</v>
       </c>
       <c r="O47" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4190,32 +4203,22 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>adeline b  oates</t>
+          <t>clarissa ann cornwell</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>strangulation</t>
+          <t>blunt object</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>brawl</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>charles</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>bowen</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>100010173</t>
+          <t>100009953</t>
         </is>
       </c>
     </row>
@@ -4227,18 +4230,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>entity_100019391:0:0</t>
+          <t>entity_100010173:0:0</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>100019391:0:0</t>
+          <t>100010173:0:0</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4256,48 +4259,53 @@
         </is>
       </c>
       <c r="K48" s="3" t="n">
-        <v>28305</v>
+        <v>28304</v>
       </c>
       <c r="L48" t="n">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="M48" t="n">
-        <v>38.93741412</v>
+        <v>38.96863099</v>
       </c>
       <c r="N48" t="n">
-        <v>-76.97730326</v>
+        <v>-77.03372163</v>
       </c>
       <c r="O48" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>timothy d  reaves</t>
+          <t>adeline b  oates</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>strangulation</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>brawl</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>curtis</t>
+          <t>charles</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>watson</t>
+          <t>bowen</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>100019391</t>
+          <t>100010173</t>
         </is>
       </c>
     </row>
@@ -4309,18 +4317,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>entity_100010846:0:0</t>
+          <t>entity_100019391:0:0</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>100010846:0:0</t>
+          <t>100019391:0:0</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4330,7 +4338,7 @@
         <v>1977</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4338,19 +4346,19 @@
         </is>
       </c>
       <c r="K49" s="3" t="n">
-        <v>28307</v>
+        <v>28305</v>
       </c>
       <c r="L49" t="n">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="M49" t="n">
-        <v>38.9064408722501</v>
+        <v>38.93741412</v>
       </c>
       <c r="N49" t="n">
-        <v>-77.02346859790865</v>
+        <v>-76.97730326</v>
       </c>
       <c r="O49" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4359,7 +4367,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>ronnie lee ferguson</t>
+          <t>timothy d  reaves</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -4369,17 +4377,17 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>leon</t>
+          <t>curtis</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>morton</t>
+          <t>watson</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>100016342,100010846,100015333</t>
+          <t>100019391</t>
         </is>
       </c>
     </row>
@@ -4391,18 +4399,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>entity_100014517:0:0</t>
+          <t>entity_100010846:0:0</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2757</v>
+        <v>2738</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>100014517:0:0</t>
+          <t>100010846:0:0</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4420,19 +4428,19 @@
         </is>
       </c>
       <c r="K50" s="3" t="n">
-        <v>28326</v>
+        <v>28307</v>
       </c>
       <c r="L50" t="n">
-        <v>2757</v>
+        <v>2738</v>
       </c>
       <c r="M50" t="n">
-        <v>38.90396901</v>
+        <v>38.9064408722501</v>
       </c>
       <c r="N50" t="n">
-        <v>-76.97311476</v>
+        <v>-77.02346859790865</v>
       </c>
       <c r="O50" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4441,32 +4449,27 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>brady crump</t>
+          <t>ronnie lee ferguson</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>blunt object</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>other</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>brady</t>
+          <t>leon</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>crump</t>
+          <t>morton</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>100014517</t>
+          <t>100016342,100010846,100015333</t>
         </is>
       </c>
     </row>
@@ -4478,18 +4481,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>entity_100014753:0:0</t>
+          <t>entity_100014517:0:0</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>100014753:0:0</t>
+          <t>100014517:0:0</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -4507,48 +4510,53 @@
         </is>
       </c>
       <c r="K51" s="3" t="n">
-        <v>28329</v>
+        <v>28326</v>
       </c>
       <c r="L51" t="n">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="M51" t="n">
-        <v>38.9029655833041</v>
+        <v>38.90396901</v>
       </c>
       <c r="N51" t="n">
-        <v>-76.97873144433829</v>
+        <v>-76.97311476</v>
       </c>
       <c r="O51" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>annie belle harrison</t>
+          <t>brady crump</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>blunt object</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>other</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>norman</t>
+          <t>brady</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>crump</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>100014753</t>
+          <t>100014517</t>
         </is>
       </c>
     </row>
@@ -4560,18 +4568,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>entity_100015333:0:0</t>
+          <t>entity_100014753:0:0</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>100015333:0:0</t>
+          <t>100014753:0:0</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -4589,43 +4597,48 @@
         </is>
       </c>
       <c r="K52" s="3" t="n">
-        <v>28332</v>
+        <v>28329</v>
       </c>
       <c r="L52" t="n">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="M52" t="n">
-        <v>38.9072362908274</v>
+        <v>38.9029655833041</v>
       </c>
       <c r="N52" t="n">
-        <v>-77.0229447208942</v>
+        <v>-76.97873144433829</v>
       </c>
       <c r="O52" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>alfonso chrisholm</t>
+          <t>annie belle harrison</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>firearm</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>robbery</t>
+          <t>knife</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>norman</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>brown</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>100016342,100015333</t>
+          <t>100014753</t>
         </is>
       </c>
     </row>
@@ -4637,18 +4650,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>entity_100015636:0:0</t>
+          <t>entity_100015333:0:0</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>100015636:0:0</t>
+          <t>100015333:0:0</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -4666,19 +4679,19 @@
         </is>
       </c>
       <c r="K53" s="3" t="n">
-        <v>28333</v>
+        <v>28332</v>
       </c>
       <c r="L53" t="n">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="M53" t="n">
-        <v>38.96475224</v>
+        <v>38.9072362908274</v>
       </c>
       <c r="N53" t="n">
-        <v>-77.03025762</v>
+        <v>-77.0229447208942</v>
       </c>
       <c r="O53" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -4687,12 +4700,12 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>ernest burk</t>
+          <t>alfonso chrisholm</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -4702,7 +4715,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>100015636,100020901</t>
+          <t>100015333,100016342</t>
         </is>
       </c>
     </row>
@@ -4714,18 +4727,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>entity_100015854:0:0</t>
+          <t>entity_100015636:0:0</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>100015854:0:0</t>
+          <t>100015636:0:0</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -4743,19 +4756,19 @@
         </is>
       </c>
       <c r="K54" s="3" t="n">
-        <v>28334</v>
+        <v>28333</v>
       </c>
       <c r="L54" t="n">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="M54" t="n">
-        <v>38.91455494</v>
+        <v>38.96475224</v>
       </c>
       <c r="N54" t="n">
-        <v>-77.02786252999999</v>
+        <v>-77.03025762</v>
       </c>
       <c r="O54" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4764,12 +4777,12 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>ernest green</t>
+          <t>ernest burk</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -4777,19 +4790,9 @@
           <t>robbery</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>ronald</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>garnett</t>
-        </is>
-      </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>100015854</t>
+          <t>100015636,100020901</t>
         </is>
       </c>
     </row>
@@ -4801,18 +4804,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>entity_100015968:0:0</t>
+          <t>entity_100015854:0:0</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>100015968:0:0</t>
+          <t>100015854:0:0</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -4830,53 +4833,53 @@
         </is>
       </c>
       <c r="K55" s="3" t="n">
-        <v>28335</v>
+        <v>28334</v>
       </c>
       <c r="L55" t="n">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="M55" t="n">
-        <v>38.85570228</v>
+        <v>38.91455494</v>
       </c>
       <c r="N55" t="n">
-        <v>-76.96727898</v>
+        <v>-77.02786252999999</v>
       </c>
       <c r="O55" t="n">
         <v>25</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>mary robinson</t>
+          <t>ernest green</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>lottie</t>
+          <t>ronald</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>brake</t>
+          <t>garnett</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>100015968</t>
+          <t>100015854</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4891,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>entity_100016213:0:0</t>
+          <t>entity_100015968:0:0</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -4899,7 +4902,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>100016213:0:0</t>
+          <t>100015968:0:0</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -4923,37 +4926,47 @@
         <v>2766</v>
       </c>
       <c r="M56" t="n">
-        <v>38.90045731</v>
+        <v>38.85570228</v>
       </c>
       <c r="N56" t="n">
-        <v>-76.99987861</v>
+        <v>-76.96727898</v>
       </c>
       <c r="O56" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>robert l  morris</t>
+          <t>mary robinson</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>robbery</t>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>lottie</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>brake</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>100016213</t>
+          <t>100015968</t>
         </is>
       </c>
     </row>
@@ -4965,18 +4978,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>entity_100016342:0:0</t>
+          <t>entity_100016213:0:0</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>100016342:0:0</t>
+          <t>100016213:0:0</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -4994,19 +5007,19 @@
         </is>
       </c>
       <c r="K57" s="3" t="n">
-        <v>28336</v>
+        <v>28335</v>
       </c>
       <c r="L57" t="n">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="M57" t="n">
-        <v>38.9056454536728</v>
+        <v>38.90045731</v>
       </c>
       <c r="N57" t="n">
-        <v>-77.02399247492311</v>
+        <v>-76.99987861</v>
       </c>
       <c r="O57" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -5015,27 +5028,22 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>john worthy</t>
+          <t>robert l  morris</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>firearm</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>mary</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>gillespie</t>
+          <t>handgun</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>robbery</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>100016342</t>
+          <t>100016213</t>
         </is>
       </c>
     </row>
@@ -5047,18 +5055,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>entity_100016685:0:0</t>
+          <t>entity_100016342:0:0</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>100016685:0:0</t>
+          <t>100016342:0:0</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5068,7 +5076,7 @@
         <v>1977</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -5076,19 +5084,19 @@
         </is>
       </c>
       <c r="K58" s="3" t="n">
-        <v>28339</v>
+        <v>28336</v>
       </c>
       <c r="L58" t="n">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="M58" t="n">
-        <v>38.94423014</v>
+        <v>38.9056454536728</v>
       </c>
       <c r="N58" t="n">
-        <v>-77.02366465</v>
+        <v>-77.02399247492311</v>
       </c>
       <c r="O58" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5097,32 +5105,27 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>john jackson</t>
+          <t>john worthy</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>knife</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>argument</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>gleana</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>gillespie</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>100016685</t>
+          <t>100016342</t>
         </is>
       </c>
     </row>
@@ -5134,18 +5137,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>entity_100017144:0:0</t>
+          <t>entity_100016685:0:0</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>100017144:0:0</t>
+          <t>100016685:0:0</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5163,13 +5166,19 @@
         </is>
       </c>
       <c r="K59" s="3" t="n">
-        <v>28341</v>
+        <v>28339</v>
       </c>
       <c r="L59" t="n">
-        <v>2772</v>
+        <v>2770</v>
+      </c>
+      <c r="M59" t="n">
+        <v>38.94423014</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-77.02366465</v>
       </c>
       <c r="O59" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -5178,22 +5187,32 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>wayne anthony owens</t>
+          <t>john jackson</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>robbery</t>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>gleana</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>long</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>100017144</t>
+          <t>100016685</t>
         </is>
       </c>
     </row>
@@ -5205,18 +5224,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>entity_100018739:0:0</t>
+          <t>entity_100017144:0:0</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>2780</v>
+        <v>2772</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>100018739:0:0</t>
+          <t>100017144:0:0</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5234,19 +5253,13 @@
         </is>
       </c>
       <c r="K60" s="3" t="n">
-        <v>28349</v>
+        <v>28341</v>
       </c>
       <c r="L60" t="n">
-        <v>2780</v>
-      </c>
-      <c r="M60" t="n">
-        <v>38.91025973</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-77.02113537</v>
+        <v>2772</v>
       </c>
       <c r="O60" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -5255,32 +5268,22 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>william h  rone</t>
+          <t>wayne anthony owens</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>brawl</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>grace</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>austin</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>100018739</t>
+          <t>100017144</t>
         </is>
       </c>
     </row>
@@ -5292,18 +5295,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>entity_100019154:0:0</t>
+          <t>entity_100018739:0:0</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>100019154:0:0</t>
+          <t>100018739:0:0</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -5321,53 +5324,53 @@
         </is>
       </c>
       <c r="K61" s="3" t="n">
-        <v>28352</v>
+        <v>28349</v>
       </c>
       <c r="L61" t="n">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="M61" t="n">
-        <v>38.89465253</v>
+        <v>38.91025973</v>
       </c>
       <c r="N61" t="n">
-        <v>-76.99109168</v>
+        <v>-77.02113537</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>carleen anita robinson</t>
+          <t>william h  rone</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>blunt object</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>negligence</t>
+          <t>brawl</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>carmelita</t>
+          <t>grace</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>pitts</t>
+          <t>austin</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>100019154</t>
+          <t>100018739</t>
         </is>
       </c>
     </row>
@@ -5379,18 +5382,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>entity_100019803:0:0</t>
+          <t>entity_100019154:0:0</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>100019803:0:0</t>
+          <t>100019154:0:0</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -5408,38 +5411,53 @@
         </is>
       </c>
       <c r="K62" s="3" t="n">
-        <v>28355</v>
+        <v>28352</v>
       </c>
       <c r="L62" t="n">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="M62" t="n">
-        <v>38.8606803729819</v>
+        <v>38.89465253</v>
       </c>
       <c r="N62" t="n">
-        <v>-76.9693260907099</v>
+        <v>-76.99109168</v>
       </c>
       <c r="O62" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>charles hamilton woodward</t>
+          <t>carleen anita robinson</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>blunt object</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>negligence</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>carmelita</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>pitts</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>100019803</t>
+          <t>100019154</t>
         </is>
       </c>
     </row>
@@ -5451,18 +5469,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>entity_100020292:0:0</t>
+          <t>entity_100019803:0:0</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>100020292:0:0</t>
+          <t>100019803:0:0</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -5480,19 +5498,19 @@
         </is>
       </c>
       <c r="K63" s="3" t="n">
-        <v>28358</v>
+        <v>28355</v>
       </c>
       <c r="L63" t="n">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="M63" t="n">
-        <v>38.85781205</v>
+        <v>38.8606803729819</v>
       </c>
       <c r="N63" t="n">
-        <v>-76.98982051999999</v>
+        <v>-76.9693260907099</v>
       </c>
       <c r="O63" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -5501,7 +5519,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>charles henry gaskins</t>
+          <t>charles hamilton woodward</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -5511,7 +5529,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>100020292</t>
+          <t>100019803</t>
         </is>
       </c>
     </row>
@@ -5523,18 +5541,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>entity_100020589:0:0</t>
+          <t>entity_100020292:0:0</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>100020589:0:0</t>
+          <t>100020292:0:0</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -5552,19 +5570,19 @@
         </is>
       </c>
       <c r="K64" s="3" t="n">
-        <v>28360</v>
+        <v>28358</v>
       </c>
       <c r="L64" t="n">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="M64" t="n">
-        <v>38.91469690102235</v>
+        <v>38.85781205</v>
       </c>
       <c r="N64" t="n">
-        <v>-77.0387390924336</v>
+        <v>-76.98982051999999</v>
       </c>
       <c r="O64" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -5573,7 +5591,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>perry jones</t>
+          <t>charles henry gaskins</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -5581,14 +5599,9 @@
           <t>firearm</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>robbery</t>
-        </is>
-      </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>100021528,100020589</t>
+          <t>100020292</t>
         </is>
       </c>
     </row>
@@ -5600,18 +5613,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>entity_100022057:0:0</t>
+          <t>entity_100020589:0:0</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>2800</v>
+        <v>2791</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>100022057:0:0</t>
+          <t>100020589:0:0</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -5621,7 +5634,7 @@
         <v>1977</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5629,19 +5642,19 @@
         </is>
       </c>
       <c r="K65" s="3" t="n">
-        <v>28369</v>
+        <v>28360</v>
       </c>
       <c r="L65" t="n">
-        <v>2800</v>
+        <v>2791</v>
       </c>
       <c r="M65" t="n">
-        <v>38.9025143016862</v>
+        <v>38.91469690102235</v>
       </c>
       <c r="N65" t="n">
-        <v>-77.0013046915693</v>
+        <v>-77.0387390924336</v>
       </c>
       <c r="O65" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -5650,7 +5663,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>andrew v  jones</t>
+          <t>perry jones</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -5658,9 +5671,14 @@
           <t>firearm</t>
         </is>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>robbery</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>100022057</t>
+          <t>100021528,100020589</t>
         </is>
       </c>
     </row>
@@ -5672,18 +5690,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>match_100023762:0:0</t>
+          <t>entity_100022057:0:0</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2809</v>
+        <v>2800</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>100023762:0:0</t>
+          <t>100022057:0:0</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -5701,19 +5719,19 @@
         </is>
       </c>
       <c r="K66" s="3" t="n">
-        <v>28378</v>
+        <v>28369</v>
       </c>
       <c r="L66" t="n">
-        <v>2809</v>
+        <v>2800</v>
       </c>
       <c r="M66" t="n">
-        <v>38.90006123769813</v>
+        <v>38.9025143016862</v>
       </c>
       <c r="N66" t="n">
-        <v>-76.95392164795187</v>
+        <v>-77.0013046915693</v>
       </c>
       <c r="O66" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -5722,39 +5740,24 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>vernon mckinley</t>
+          <t>andrew v  jones</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>handgun</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>robbery</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>joseph</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>west</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>100037322,100025319,100023762</t>
+          <t>100022057</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5770,11 +5773,8 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>100025447:0:0</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>100025447</v>
+          <t>100023762:0:0</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5791,14 +5791,33 @@
         </is>
       </c>
       <c r="K67" s="3" t="n">
-        <v>28387</v>
+        <v>28378</v>
       </c>
       <c r="L67" t="n">
-        <v>2818</v>
+        <v>2809</v>
+      </c>
+      <c r="M67" t="n">
+        <v>38.90006123769813</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-76.95392164795187</v>
+      </c>
+      <c r="O67" t="n">
+        <v>47</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>vernon mckinley</t>
+        </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -5806,12 +5825,19 @@
           <t>robbery</t>
         </is>
       </c>
-      <c r="X67" t="n">
-        <v>0.6434744741786268</v>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>joseph</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>west</t>
+        </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>100025447</t>
+          <t>100023762,100037322,100025319</t>
         </is>
       </c>
     </row>
@@ -5834,11 +5860,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>100025888:0:0</t>
+          <t>100025447:0:0</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100025888</v>
+        <v>100025447</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -5851,21 +5877,18 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>month</t>
-        </is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>28387</v>
       </c>
       <c r="L68" t="n">
-        <v>2814</v>
-      </c>
-      <c r="M68" t="n">
-        <v>38.83196183</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-76.99005362</v>
+        <v>2818</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -5874,11 +5897,11 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.3284075266776713</v>
+        <v>0.5513217730039918</v>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>100025888</t>
+          <t>100025447</t>
         </is>
       </c>
     </row>
@@ -5901,11 +5924,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>100027128:0:0</t>
+          <t>100025888:0:0</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100027128</v>
+        <v>100025888</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5924,9 +5947,15 @@
       <c r="L69" t="n">
         <v>2814</v>
       </c>
+      <c r="M69" t="n">
+        <v>38.83196183</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-76.99005362</v>
+      </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -5935,11 +5964,11 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.6260908230868526</v>
+        <v>0.2907182729237148</v>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>100027128</t>
+          <t>100025888</t>
         </is>
       </c>
     </row>
@@ -5962,11 +5991,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>100027129:0:0</t>
+          <t>100027128:0:0</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100027129</v>
+        <v>100027128</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5987,7 +6016,7 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -5996,35 +6025,38 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.842331686272997</v>
+        <v>0.584615084028953</v>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>100027129</t>
+          <t>100027128</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>entity_100025667:0:0</t>
+          <t>match_100023762:0:0</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>2817</v>
+        <v>2809</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>100025667:0:0</t>
-        </is>
+          <t>100027129:0:0</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>100027129</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -6037,27 +6069,11 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>28386</v>
+          <t>month</t>
+        </is>
       </c>
       <c r="L71" t="n">
-        <v>2817</v>
-      </c>
-      <c r="O71" t="n">
-        <v>21</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>janet anne gaillard</t>
-        </is>
+        <v>2814</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -6069,9 +6085,12 @@
           <t>robbery</t>
         </is>
       </c>
+      <c r="X71" t="n">
+        <v>0.8174137358844059</v>
+      </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>100025667</t>
+          <t>100027129</t>
         </is>
       </c>
     </row>
@@ -6083,18 +6102,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>entity_100026122:0:0</t>
+          <t>entity_100025667:0:0</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>100026122:0:0</t>
+          <t>100025667:0:0</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -6112,23 +6131,22 @@
         </is>
       </c>
       <c r="K72" s="3" t="n">
-        <v>28390</v>
+        <v>28386</v>
       </c>
       <c r="L72" t="n">
-        <v>2821</v>
-      </c>
-      <c r="M72" t="n">
-        <v>38.85880612</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-76.9626421</v>
+        <v>2817</v>
       </c>
       <c r="O72" t="n">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>joseph boone</t>
+          <t>janet anne gaillard</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -6138,12 +6156,12 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>100026122</t>
+          <t>100025667</t>
         </is>
       </c>
     </row>
@@ -6155,18 +6173,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>entity_100029351:0:0</t>
+          <t>entity_100026122:0:0</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>2837</v>
+        <v>2821</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>100029351:0:0</t>
+          <t>100026122:0:0</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -6176,7 +6194,7 @@
         <v>1977</v>
       </c>
       <c r="I73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6184,53 +6202,38 @@
         </is>
       </c>
       <c r="K73" s="3" t="n">
-        <v>28406</v>
+        <v>28390</v>
       </c>
       <c r="L73" t="n">
-        <v>2837</v>
+        <v>2821</v>
       </c>
       <c r="M73" t="n">
-        <v>38.9126057064239</v>
+        <v>38.85880612</v>
       </c>
       <c r="N73" t="n">
-        <v>-77.0296224305404</v>
+        <v>-76.9626421</v>
       </c>
       <c r="O73" t="n">
-        <v>21</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+        <v>17</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>charlotte lee</t>
+          <t>joseph boone</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>robbery</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>daniel</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>strickland</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>100029351</t>
+          <t>100026122</t>
         </is>
       </c>
     </row>
@@ -6242,18 +6245,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>entity_100030454:0:0</t>
+          <t>entity_100029351:0:0</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>2844</v>
+        <v>2837</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>100030454:0:0</t>
+          <t>100029351:0:0</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -6271,53 +6274,53 @@
         </is>
       </c>
       <c r="K74" s="3" t="n">
-        <v>28413</v>
+        <v>28406</v>
       </c>
       <c r="L74" t="n">
-        <v>2844</v>
+        <v>2837</v>
       </c>
       <c r="M74" t="n">
-        <v>38.9164872525532</v>
+        <v>38.9126057064239</v>
       </c>
       <c r="N74" t="n">
-        <v>-77.029329083541</v>
+        <v>-77.0296224305404</v>
       </c>
       <c r="O74" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>leroy evans</t>
+          <t>charlotte lee</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>brawl</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>george</t>
+          <t>daniel</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>bellinger</t>
+          <t>strickland</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>100030454</t>
+          <t>100029351</t>
         </is>
       </c>
     </row>
@@ -6329,18 +6332,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>entity_100030958:0:0</t>
+          <t>entity_100030454:0:0</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>100030958:0:0</t>
+          <t>100030454:0:0</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -6358,19 +6361,19 @@
         </is>
       </c>
       <c r="K75" s="3" t="n">
-        <v>28416</v>
+        <v>28413</v>
       </c>
       <c r="L75" t="n">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="M75" t="n">
-        <v>38.9364283</v>
+        <v>38.9164872525532</v>
       </c>
       <c r="N75" t="n">
-        <v>-77.03726282</v>
+        <v>-77.029329083541</v>
       </c>
       <c r="O75" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -6379,7 +6382,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>ralph l  payne</t>
+          <t>leroy evans</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -6394,44 +6397,41 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>nathaniel</t>
+          <t>george</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>mcqueen</t>
+          <t>bellinger</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>100031486,100030958</t>
+          <t>100030454</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>orphan_100031895:0:0</t>
+          <t>entity_100030958:0:0</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>100031895:0:0</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>100031895</v>
+          <t>100030958:0:0</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -6448,72 +6448,80 @@
         </is>
       </c>
       <c r="K76" s="3" t="n">
-        <v>28420</v>
+        <v>28416</v>
       </c>
       <c r="L76" t="n">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="M76" t="n">
-        <v>38.9058531</v>
+        <v>38.9364283</v>
       </c>
       <c r="N76" t="n">
-        <v>-77.02881754000001</v>
+        <v>-77.03726282</v>
       </c>
       <c r="O76" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>ralph l  payne</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>undetermined</t>
+          <t>brawl</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>ralph</t>
+          <t>nathaniel</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>fox</t>
+          <t>mcqueen</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>100031895</t>
+          <t>100030958,100031486</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>entity_100032715:0:0</t>
+          <t>orphan_100031895:0:0</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>100032715:0:0</t>
-        </is>
+          <t>100031895:0:0</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>100031895</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -6530,20 +6538,23 @@
         </is>
       </c>
       <c r="K77" s="3" t="n">
-        <v>28421</v>
+        <v>28420</v>
       </c>
       <c r="L77" t="n">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="M77" t="n">
-        <v>38.84635252</v>
+        <v>38.9058531</v>
       </c>
       <c r="N77" t="n">
-        <v>-76.97371324</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>james d  royal</t>
+        <v>-77.02881754000001</v>
+      </c>
+      <c r="O77" t="n">
+        <v>77</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -6553,22 +6564,22 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>undetermined</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>frank</t>
+          <t>ralph</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>lyles</t>
+          <t>fox</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>100032715</t>
+          <t>100031895</t>
         </is>
       </c>
     </row>
@@ -6580,18 +6591,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>entity_100033283:0:0</t>
+          <t>entity_100032715:0:0</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>2858</v>
+        <v>2852</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>100033283:0:0</t>
+          <t>100032715:0:0</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -6609,48 +6620,45 @@
         </is>
       </c>
       <c r="K78" s="3" t="n">
-        <v>28427</v>
+        <v>28421</v>
       </c>
       <c r="L78" t="n">
-        <v>2858</v>
+        <v>2852</v>
       </c>
       <c r="M78" t="n">
-        <v>38.8801759</v>
+        <v>38.84635252</v>
       </c>
       <c r="N78" t="n">
-        <v>-76.99641043</v>
-      </c>
-      <c r="O78" t="n">
-        <v>21</v>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>-76.97371324</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>raymond harper</t>
+          <t>james d  royal</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>knife</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>argument</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>johnny</t>
+          <t>frank</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>simms</t>
+          <t>lyles</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>100033283</t>
+          <t>100032715</t>
         </is>
       </c>
     </row>
@@ -6662,18 +6670,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>entity_100033633:0:0</t>
+          <t>entity_100033283:0:0</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>100033633:0:0</t>
+          <t>100033283:0:0</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -6691,47 +6699,48 @@
         </is>
       </c>
       <c r="K79" s="3" t="n">
-        <v>28429</v>
+        <v>28427</v>
       </c>
       <c r="L79" t="n">
-        <v>2860</v>
+        <v>2858</v>
+      </c>
+      <c r="M79" t="n">
+        <v>38.8801759</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-76.99641043</v>
       </c>
       <c r="O79" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>mary braxton</t>
+          <t>raymond harper</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>blunt object</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>brawl</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>dennis</t>
+          <t>johnny</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>wilson</t>
+          <t>simms</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>100033844,100033633</t>
+          <t>100033283</t>
         </is>
       </c>
     </row>
@@ -6743,18 +6752,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>entity_100034545:0:0</t>
+          <t>entity_100033633:0:0</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>100034545:0:0</t>
+          <t>100033633:0:0</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -6764,7 +6773,7 @@
         <v>1977</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6772,19 +6781,13 @@
         </is>
       </c>
       <c r="K80" s="3" t="n">
-        <v>28433</v>
+        <v>28429</v>
       </c>
       <c r="L80" t="n">
-        <v>2864</v>
-      </c>
-      <c r="M80" t="n">
-        <v>38.91532904</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-77.02926796</v>
+        <v>2860</v>
       </c>
       <c r="O80" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -6793,7 +6796,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>margaret harris</t>
+          <t>mary braxton</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -6803,22 +6806,22 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>brawl</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>gaston</t>
+          <t>dennis</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>brakes</t>
+          <t>wilson</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>100034545</t>
+          <t>100033844,100033633</t>
         </is>
       </c>
     </row>
@@ -6830,7 +6833,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>entity_100035465:0:0</t>
+          <t>entity_100034545:0:0</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -6841,7 +6844,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>100035465:0:0</t>
+          <t>100034545:0:0</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -6865,74 +6868,71 @@
         <v>2864</v>
       </c>
       <c r="M81" t="n">
-        <v>38.92131124</v>
+        <v>38.91532904</v>
       </c>
       <c r="N81" t="n">
-        <v>-77.03357609</v>
+        <v>-77.02926796</v>
       </c>
       <c r="O81" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>brian perkins</t>
+          <t>margaret harris</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>handgun</t>
+          <t>blunt object</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>robbery</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>wayne</t>
+          <t>gaston</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>perkins</t>
+          <t>brakes</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>100035465</t>
+          <t>100034545</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>orphan_100035465:0:1</t>
+          <t>entity_100035465:0:0</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>2864</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>100035465:0:1</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>100035465</v>
+          <t>100035465:0:0</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -6960,9 +6960,17 @@
       <c r="N82" t="n">
         <v>-77.03357609</v>
       </c>
+      <c r="O82" t="n">
+        <v>18</v>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>male</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>brian perkins</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -6994,24 +7002,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>entity_100035712:0:0</t>
+          <t>orphan_100035465:0:1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>2869</v>
+        <v>2864</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>100035712:0:0</t>
-        </is>
+          <t>100035465:0:1</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>100035465</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -7028,53 +7039,45 @@
         </is>
       </c>
       <c r="K83" s="3" t="n">
-        <v>28438</v>
+        <v>28433</v>
       </c>
       <c r="L83" t="n">
-        <v>2869</v>
+        <v>2864</v>
       </c>
       <c r="M83" t="n">
-        <v>38.8671388000663</v>
+        <v>38.92131124</v>
       </c>
       <c r="N83" t="n">
-        <v>-76.9883434498142</v>
-      </c>
-      <c r="O83" t="n">
-        <v>27</v>
+        <v>-77.03357609</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>helen perryman</t>
+          <t>male</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>handgun</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>lover's triangle</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>james</t>
+          <t>wayne</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>garay</t>
+          <t>perkins</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>100035712</t>
+          <t>100035465</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7089,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>entity_100035712:0:1</t>
+          <t>entity_100035712:0:0</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -7097,7 +7100,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>100035712:0:1</t>
+          <t>100035712:0:0</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -7127,16 +7130,16 @@
         <v>-76.9883434498142</v>
       </c>
       <c r="O84" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>reginald g  copper</t>
+          <t>helen perryman</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -7173,18 +7176,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>entity_100037114:0:0</t>
+          <t>entity_100035712:0:1</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2877</v>
+        <v>2869</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>100037114:0:0</t>
+          <t>100035712:0:1</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -7202,28 +7205,28 @@
         </is>
       </c>
       <c r="K85" s="3" t="n">
-        <v>28446</v>
+        <v>28438</v>
       </c>
       <c r="L85" t="n">
-        <v>2877</v>
+        <v>2869</v>
       </c>
       <c r="M85" t="n">
-        <v>38.9062299717966</v>
+        <v>38.8671388000663</v>
       </c>
       <c r="N85" t="n">
-        <v>-76.9983364516077</v>
+        <v>-76.9883434498142</v>
       </c>
       <c r="O85" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>ojetta collier</t>
+          <t>reginald g  copper</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -7231,36 +7234,48 @@
           <t>firearm</t>
         </is>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>lover's triangle</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>garay</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>100037114</t>
+          <t>100035712</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>orphan</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>orphan_100037808:0:0</t>
+          <t>entity_100037114:0:0</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>100037808:0:0</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>100037808</v>
+          <t>100037114:0:0</t>
+        </is>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -7277,48 +7292,65 @@
         </is>
       </c>
       <c r="K86" s="3" t="n">
-        <v>28451</v>
+        <v>28446</v>
       </c>
       <c r="L86" t="n">
-        <v>2882</v>
+        <v>2877</v>
+      </c>
+      <c r="M86" t="n">
+        <v>38.9062299717966</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-76.9983364516077</v>
+      </c>
+      <c r="O86" t="n">
+        <v>26</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>ojetta collier</t>
+        </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>undetermined</t>
-        </is>
-      </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>100037808</t>
+          <t>100037114</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>orphan</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>entity_100040692:0:0</t>
+          <t>orphan_100037808:0:0</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>2894</v>
+        <v>2882</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>100040692:0:0</t>
-        </is>
+          <t>100037808:0:0</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>100037808</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -7327,7 +7359,7 @@
         <v>1977</v>
       </c>
       <c r="I87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7335,23 +7367,10 @@
         </is>
       </c>
       <c r="K87" s="3" t="n">
-        <v>28463</v>
+        <v>28451</v>
       </c>
       <c r="L87" t="n">
-        <v>2894</v>
-      </c>
-      <c r="O87" t="n">
-        <v>25</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>edward williams</t>
-        </is>
+        <v>2882</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -7360,22 +7379,12 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>robbery</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>james</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>head</t>
+          <t>undetermined</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>100040873,100040692</t>
+          <t>100037808</t>
         </is>
       </c>
     </row>
@@ -7387,18 +7396,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>entity_100040692:1:0</t>
+          <t>entity_100040692:0:0</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>100040692:1:0</t>
+          <t>100040692:0:0</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -7416,19 +7425,13 @@
         </is>
       </c>
       <c r="K88" s="3" t="n">
-        <v>28464</v>
+        <v>28463</v>
       </c>
       <c r="L88" t="n">
-        <v>2895</v>
-      </c>
-      <c r="M88" t="n">
-        <v>38.8841290284262</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-76.9307169045053</v>
+        <v>2894</v>
       </c>
       <c r="O88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -7437,7 +7440,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>angelo rowe</t>
+          <t>edward williams</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -7462,7 +7465,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>100040873,100040692</t>
+          <t>100040692,100040873</t>
         </is>
       </c>
     </row>
@@ -7474,18 +7477,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>entity_100044168:0:0</t>
+          <t>entity_100040692:1:0</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>100044168:0:0</t>
+          <t>100040692:1:0</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -7503,19 +7506,19 @@
         </is>
       </c>
       <c r="K89" s="3" t="n">
-        <v>28465</v>
+        <v>28464</v>
       </c>
       <c r="L89" t="n">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="M89" t="n">
-        <v>38.8840648592851</v>
+        <v>38.8841290284262</v>
       </c>
       <c r="N89" t="n">
-        <v>-76.95686087735351</v>
+        <v>-76.9307169045053</v>
       </c>
       <c r="O89" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -7524,32 +7527,32 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>napolen b  wilcox</t>
+          <t>angelo rowe</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>firearm</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>lover's triangle</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>charles</t>
+          <t>james</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>philips</t>
+          <t>head</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>100044168</t>
+          <t>100040873,100040692</t>
         </is>
       </c>
     </row>
@@ -7561,18 +7564,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>entity_100044168:1:0</t>
+          <t>entity_100044168:0:0</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>100044168:1:0</t>
+          <t>100044168:0:0</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -7590,10 +7593,10 @@
         </is>
       </c>
       <c r="K90" s="3" t="n">
-        <v>28466</v>
+        <v>28465</v>
       </c>
       <c r="L90" t="n">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="M90" t="n">
         <v>38.8840648592851</v>
@@ -7602,7 +7605,7 @@
         <v>-76.95686087735351</v>
       </c>
       <c r="O90" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -7611,7 +7614,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>michael k  riley</t>
+          <t>napolen b  wilcox</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -7621,7 +7624,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>brawl</t>
+          <t>lover's triangle</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -7648,18 +7651,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>entity_100042269:0:0</t>
+          <t>entity_100044168:1:0</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>100042269:0:0</t>
+          <t>100044168:1:0</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -7677,38 +7680,53 @@
         </is>
       </c>
       <c r="K91" s="3" t="n">
-        <v>28472</v>
+        <v>28466</v>
       </c>
       <c r="L91" t="n">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="M91" t="n">
-        <v>38.90319026</v>
+        <v>38.8840648592851</v>
       </c>
       <c r="N91" t="n">
-        <v>-76.97243071</v>
+        <v>-76.95686087735351</v>
       </c>
       <c r="O91" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>jacqueline hicks</t>
+          <t>michael k  riley</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>firearm</t>
+          <t>knife</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>brawl</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>charles</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>philips</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>100042269</t>
+          <t>100044168</t>
         </is>
       </c>
     </row>
@@ -7720,18 +7738,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>entity_100044008:0:0</t>
+          <t>entity_100042269:0:0</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2910</v>
+        <v>2903</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>100044008:0:0</t>
+          <t>100042269:0:0</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -7749,28 +7767,28 @@
         </is>
       </c>
       <c r="K92" s="3" t="n">
-        <v>28479</v>
+        <v>28472</v>
       </c>
       <c r="L92" t="n">
-        <v>2910</v>
+        <v>2903</v>
       </c>
       <c r="M92" t="n">
-        <v>38.8813219299484</v>
+        <v>38.90319026</v>
       </c>
       <c r="N92" t="n">
-        <v>-76.9268837050888</v>
+        <v>-76.97243071</v>
       </c>
       <c r="O92" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>william c  johnson</t>
+          <t>jacqueline hicks</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -7778,24 +7796,9 @@
           <t>firearm</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>robbery</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>michael</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>100044008</t>
+          <t>100042269</t>
         </is>
       </c>
     </row>
@@ -7807,18 +7810,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>entity_100044573:0:0</t>
+          <t>entity_100044008:0:0</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>100044573:0:0</t>
+          <t>100044008:0:0</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -7836,19 +7839,19 @@
         </is>
       </c>
       <c r="K93" s="3" t="n">
-        <v>28483</v>
+        <v>28479</v>
       </c>
       <c r="L93" t="n">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="M93" t="n">
-        <v>38.9203932</v>
+        <v>38.8813219299484</v>
       </c>
       <c r="N93" t="n">
-        <v>-77.00221635</v>
+        <v>-76.9268837050888</v>
       </c>
       <c r="O93" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -7857,7 +7860,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>wendell ernest hughes</t>
+          <t>william c  johnson</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -7867,22 +7870,22 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>robbery</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>james</t>
+          <t>michael</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>short</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>100044573</t>
+          <t>100044008</t>
         </is>
       </c>
     </row>
@@ -7894,18 +7897,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>entity_100045513:0:0</t>
+          <t>entity_100044573:0:0</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>2919</v>
+        <v>2914</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>100045513:0:0</t>
+          <t>100044573:0:0</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -7923,58 +7926,145 @@
         </is>
       </c>
       <c r="K94" s="3" t="n">
+        <v>28483</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2914</v>
+      </c>
+      <c r="M94" t="n">
+        <v>38.9203932</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-77.00221635</v>
+      </c>
+      <c r="O94" t="n">
+        <v>24</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>wendell ernest hughes</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>firearm</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>jackson</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>100044573</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>entity_100045513:0:0</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2919</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>100045513:0:0</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1977</v>
+      </c>
+      <c r="I95" t="n">
+        <v>12</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="K95" s="3" t="n">
         <v>28488</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L95" t="n">
         <v>2919</v>
       </c>
-      <c r="M94" t="n">
+      <c r="M95" t="n">
         <v>38.91091482</v>
       </c>
-      <c r="N94" t="n">
+      <c r="N95" t="n">
         <v>-77.03129127</v>
       </c>
-      <c r="O94" t="n">
+      <c r="O95" t="n">
         <v>59</v>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>david p  leach</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="U94" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="V94" t="inlineStr">
+      <c r="V95" t="inlineStr">
         <is>
           <t>deborah</t>
         </is>
       </c>
-      <c r="W94" t="inlineStr">
+      <c r="W95" t="inlineStr">
         <is>
           <t>weinsheimer</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr">
+      <c r="Y95" t="inlineStr">
         <is>
           <t>100045513</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Y94">
+  <conditionalFormatting sqref="A2:Y95">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>$C2 = 0</formula>
     </cfRule>
